--- a/local.xlsx
+++ b/local.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juho/Desktop/github/figma-locale-plugin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD33D98A-BD32-5846-A9D9-9D75D96BFE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF34513-112A-0B43-A742-FE24A1AAFD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{39DB5F3F-14EF-3942-B4FC-C59D29941C60}"/>
+    <workbookView xWindow="5840" yWindow="3480" windowWidth="28300" windowHeight="16940" xr2:uid="{39DB5F3F-14EF-3942-B4FC-C59D29941C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,11 +201,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -530,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831B6088-6B60-D64B-9F38-3F03C9F0A573}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -557,16 +554,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -574,16 +571,16 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -591,16 +588,16 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -608,16 +605,16 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -625,16 +622,16 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/local.xlsx
+++ b/local.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juho/Desktop/github/figma-locale-plugin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF34513-112A-0B43-A742-FE24A1AAFD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3267E8C0-8975-EA4A-9162-8BD6801D2300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="3480" windowWidth="28300" windowHeight="16940" xr2:uid="{39DB5F3F-14EF-3942-B4FC-C59D29941C60}"/>
+    <workbookView xWindow="9800" yWindow="9600" windowWidth="28300" windowHeight="16940" xr2:uid="{39DB5F3F-14EF-3942-B4FC-C59D29941C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,9 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831B6088-6B60-D64B-9F38-3F03C9F0A573}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
